--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>0.8817293601431446</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.610221139214449</v>
+        <v>-8.773272678805306</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.0764058509822</v>
+        <v>-3.03825488050141</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.442747943504295</v>
+        <v>-5.483098420862494</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.8813683796744932</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.853633233647821</v>
+        <v>-9.026582554187021</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.173851861033167</v>
+        <v>-3.125030663736371</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.37050461642365</v>
+        <v>-5.421224197632498</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.7780259670291825</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.673185206934189</v>
+        <v>-9.839090868544542</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.059320395773748</v>
+        <v>-3.010473013871268</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.247004923717649</v>
+        <v>-5.288245677669085</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.5912358499606113</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.44187358368045</v>
+        <v>-10.60132473998983</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.961586355060263</v>
+        <v>-2.913315034482819</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.451755447859402</v>
+        <v>-5.503561690204113</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3468434028448291</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.22136311027114</v>
+        <v>-11.37857548279458</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.808550427143326</v>
+        <v>-2.76564695073099</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.005229367139493</v>
+        <v>-5.057729501534815</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.07761958970484199</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.88124135809982</v>
+        <v>-12.03432965522812</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.776330269849839</v>
+        <v>-2.734670562207466</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.147568883634739</v>
+        <v>-5.18823357626114</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1822617615973319</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.37681120526483</v>
+        <v>-12.53546373110087</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.656705898784987</v>
+        <v>-2.611864761552076</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.70726164676465</v>
+        <v>-4.747114616614864</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3989995917012842</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.35627256546004</v>
+        <v>-13.5029456341959</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.40338293110043</v>
+        <v>-2.365336699042374</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.624099339114006</v>
+        <v>-4.655442312117097</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.5439321167196619</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.10261238125548</v>
+        <v>-14.24556723598428</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.379384739991546</v>
+        <v>-2.347046751972483</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.259504889577618</v>
+        <v>-4.266627102323517</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5917915601818526</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.80172826070081</v>
+        <v>-14.94512825372623</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.200779544624719</v>
+        <v>-2.167145418624325</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.044568553825001</v>
+        <v>-4.055278057549534</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5275124875359856</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.46761587553384</v>
+        <v>-15.60661685480444</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.182816905125871</v>
+        <v>-2.159486421461915</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.526597776497793</v>
+        <v>-3.540200679150346</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3492402055939679</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.43974554613768</v>
+        <v>-16.57462245001314</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.019804642443539</v>
+        <v>-1.991145591523001</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.885284414098683</v>
+        <v>-2.90225203858156</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.06103077609909902</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.08349407686535</v>
+        <v>-17.20606421606959</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.734863763396213</v>
+        <v>-1.71678329317179</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.524185609421036</v>
+        <v>-2.522588348474346</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3239786101784362</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.99029315628898</v>
+        <v>-18.10930218912027</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.564938764813451</v>
+        <v>-1.547814032696473</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.926024477188256</v>
+        <v>-1.928970245327644</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7838250205369064</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.90891458517869</v>
+        <v>-19.02226774318236</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.396296811909177</v>
+        <v>-1.389881583516732</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.580021097687119</v>
+        <v>-1.556350214149278</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.292081858315162</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.70003007669283</v>
+        <v>-19.80654905261311</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.149192688074439</v>
+        <v>-1.154639086056598</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.050489816950667</v>
+        <v>-1.025300226283186</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.824450990050769</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.68838111051758</v>
+        <v>-20.79191504138995</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.050673109190451</v>
+        <v>-1.057297814428364</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6905955041344587</v>
+        <v>-0.6614389457059348</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.355651506179724</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.52992815257804</v>
+        <v>-21.63062105373376</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9003080110532269</v>
+        <v>-0.9102057920015718</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3217329638716685</v>
+        <v>-0.2863837461990081</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.859601276359534</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18027520393794</v>
+        <v>-22.28619193392751</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.642546752705324</v>
+        <v>-0.6660474363062223</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0548802196734236</v>
+        <v>0.07534348901504144</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.3201312104942</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81064340116137</v>
+        <v>-22.90825961114928</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3407691722035382</v>
+        <v>-0.3690092694331413</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3701559644050291</v>
+        <v>0.3996136457989127</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.724026888190451</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44153529049847</v>
+        <v>-23.5384052392244</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0672578735370389</v>
+        <v>-0.1052517363837279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3316253171418292</v>
+        <v>0.3648404894512883</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.059969120015954</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95385019299805</v>
+        <v>-24.0470542969283</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04923743714863967</v>
+        <v>0.01176726641561966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5902637597801277</v>
+        <v>0.6407214949321399</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.322369009320559</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.33965417313803</v>
+        <v>-24.42718930993781</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03171993594641018</v>
+        <v>-0.006417942231537853</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5211756776843393</v>
+        <v>0.5621807701846253</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.511409092073474</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61114925716691</v>
+        <v>-24.69389261112661</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3185984758143118</v>
+        <v>0.2789287982038818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5108065738336922</v>
+        <v>0.5516545586998776</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.628874792395558</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.6287191275805</v>
+        <v>-24.70362019213802</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3325286860379083</v>
+        <v>0.2975329605419745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3495355874293105</v>
+        <v>0.4000718763983731</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.678902258406746</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.6085438889014</v>
+        <v>-24.66914815875575</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1507551533833836</v>
+        <v>0.1156808740703995</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3259432577085201</v>
+        <v>0.3757856546269713</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.673582081674097</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72145190860845</v>
+        <v>-24.77116338249848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2651164187058608</v>
+        <v>0.2336556149771931</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03991571752533071</v>
+        <v>0.09097569860806237</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.626054794019063</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76834853738751</v>
+        <v>-24.81383119745967</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2094217624171581</v>
+        <v>0.1950071369884177</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05309200186229129</v>
+        <v>-0.01120972507160959</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.547018605541552</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.5401104219477</v>
+        <v>-24.57881126914784</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08696945393849419</v>
+        <v>0.06020878693000611</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.248677914014837</v>
+        <v>-0.2130013887711335</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.456995446785755</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.06753065857276</v>
+        <v>-24.11377267220973</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08439027027867416</v>
+        <v>0.06426740081094119</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7059004061564365</v>
+        <v>-0.6735493258345314</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.373444899370607</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15535382603505</v>
+        <v>-24.19597924175293</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1489615078940671</v>
+        <v>0.1298860226536722</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7576280946840962</v>
+        <v>-0.7376754251533056</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.307770964466577</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73078353718072</v>
+        <v>-23.77067578393946</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06094195588914277</v>
+        <v>0.04424926976594203</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.217626155028142</v>
+        <v>-1.199545684803718</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.27497596159186</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16943796053887</v>
+        <v>-23.21096674515283</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.096741739536606</v>
+        <v>-0.1053041055950948</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.289777835988894</v>
+        <v>-1.281320208353139</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.288081799929063</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82810853315223</v>
+        <v>-22.86137607467306</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2877191610888641</v>
+        <v>-0.3000913872742953</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.310646966718605</v>
+        <v>-1.305540968610332</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.351767495918584</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10125006398529</v>
+        <v>-22.13292034455942</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4210511732290024</v>
+        <v>-0.4263142789713763</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.511810199881726</v>
+        <v>-1.512451722720971</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.4656720734549</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28769436540043</v>
+        <v>-21.33371380988909</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3571083661500123</v>
+        <v>-0.3587318117023863</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.640991952021037</v>
+        <v>-1.62614528059852</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.633471465283133</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.9123249506253</v>
+        <v>-20.95580448836267</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4103547618073122</v>
+        <v>-0.4214570346170959</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.889837352133725</v>
+        <v>-1.87250314317128</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.849496510723419</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25858699282939</v>
+        <v>-20.2979686397773</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2631710932606278</v>
+        <v>-0.2666143689080017</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.041459311343754</v>
+        <v>-2.034179990963755</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.097501655106446</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.956115520277</v>
+        <v>-19.98271907965138</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5447865273861555</v>
+        <v>-0.550691155967774</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.267144427729428</v>
+        <v>-2.253777186528026</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.370553425400701</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41884668856108</v>
+        <v>-19.45976013494148</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2671642456273542</v>
+        <v>-0.2752552887835409</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.107352871546162</v>
+        <v>-2.11166023918109</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.655258929349124</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86403417103726</v>
+        <v>-18.903677664042</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.005998988540602618</v>
+        <v>-0.02300588993200478</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.076324113811271</v>
+        <v>-2.093514307442457</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.932369543046501</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95986664448481</v>
+        <v>-18.00986614903736</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01617170784862377</v>
+        <v>-0.03112311769387494</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.965851262432786</v>
+        <v>-1.989757807421778</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.188118063507229</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62499172239914</v>
+        <v>-17.67205855111515</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03161519752367638</v>
+        <v>0.02191380111795736</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.169187817867634</v>
+        <v>-2.199064452952453</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.413071930710567</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11706274135154</v>
+        <v>-17.16327857038283</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001620731713281953</v>
+        <v>-0.01174650948812036</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.209970341219611</v>
+        <v>-2.244376913087667</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.595438814423098</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.74141838821673</v>
+        <v>-16.78853758614411</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0177635411171302</v>
+        <v>0.00452722294414514</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.147925918052671</v>
+        <v>-2.19987617572864</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.723846643772442</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.0681859914895</v>
+        <v>-16.12227029452866</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02338013903623068</v>
+        <v>0.02034272477695023</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.437357456974709</v>
+        <v>-2.495120697112404</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>6.799524028722462</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41889941665977</v>
+        <v>-15.46388456922395</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.009075679708408245</v>
+        <v>-0.007962833966861529</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.370704543207482</v>
+        <v>-2.433469043030716</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>6.821735333759963</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.8820495386348</v>
+        <v>-14.93609456476544</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1441173558426285</v>
+        <v>0.1366023740114777</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.549676323053877</v>
+        <v>-2.630639123827111</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>6.786713551029676</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18114001370015</v>
+        <v>-14.23900799226058</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2894157327801044</v>
+        <v>0.2832623504444932</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.456864988208881</v>
+        <v>-2.562794810501286</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>6.70338766235998</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41830389632414</v>
+        <v>-13.46653593999306</v>
       </c>
       <c r="F51" t="n">
-        <v>0.284702503757083</v>
+        <v>0.2795834133459681</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.522483610051612</v>
+        <v>-2.644006365028513</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>6.578645951524507</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83310414390467</v>
+        <v>-12.87541846668913</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3689907494521154</v>
+        <v>0.360886613993087</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.534358328729057</v>
+        <v>-2.657373606229916</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>6.416060636961504</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17968040137696</v>
+        <v>-12.21420480397059</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4180737928057465</v>
+        <v>0.4099827496495598</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.552897029552942</v>
+        <v>-2.68296905828549</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>6.224112770050014</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80250424880968</v>
+        <v>-11.84954489292</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3082424642665065</v>
+        <v>0.2968521607942048</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.657295052412865</v>
+        <v>-2.792761109916205</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>6.014151671444455</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34877740152682</v>
+        <v>-11.38904932506797</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05997312547885504</v>
+        <v>0.05059903664417918</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.120435265438925</v>
+        <v>-3.264935011903055</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>5.792589718282714</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.89963286023856</v>
+        <v>-10.94811365766147</v>
       </c>
       <c r="F56" t="n">
-        <v>0.152025106759031</v>
+        <v>0.1362096049262259</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.189811378197231</v>
+        <v>-3.335607262642693</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>5.562162113593533</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14429863239086</v>
+        <v>-10.18919213883514</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08600062352820646</v>
+        <v>0.07222752093871064</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.557482518901424</v>
+        <v>-3.695187360190699</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>5.335168757661018</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.842743621037384</v>
+        <v>-9.883787990446194</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08848049644347684</v>
+        <v>-0.09530158622401613</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.590147814491531</v>
+        <v>-3.733940576602209</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>5.116369304142957</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.299203576260284</v>
+        <v>-9.343979251978986</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002681208243461764</v>
+        <v>-0.0125189553557822</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.877275108113425</v>
+        <v>-4.012138919686046</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>4.90449279436701</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.931872835429976</v>
+        <v>-8.98113917102339</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1334132797962807</v>
+        <v>-0.1502630735535822</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.787435726013501</v>
+        <v>-3.92418482919533</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>4.707824350948982</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.404554153873775</v>
+        <v>-8.444236923787047</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.159257485605848</v>
+        <v>-0.16814715923538</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.189971669185211</v>
+        <v>-4.32346078895945</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>4.530470972865455</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.890589621216135</v>
+        <v>-7.9417543407216</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1005123227550231</v>
+        <v>-0.1130547488773967</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.14596843933417</v>
+        <v>-4.28712964857366</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>4.371917698865022</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.40761456938486</v>
+        <v>-7.46283790277126</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1604619774672868</v>
+        <v>-0.1679638669955958</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.148796376747982</v>
+        <v>-4.287011817848085</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>4.234107588426239</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.053310669882069</v>
+        <v>-7.096318884717139</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3181063959845103</v>
+        <v>-0.3233695017268842</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.399762729921029</v>
+        <v>-4.53682604837106</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>4.123142728319033</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.680625177189494</v>
+        <v>-6.729734405148809</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2629747087180019</v>
+        <v>-0.2722178745242605</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.686313962217888</v>
+        <v>-4.820012558837594</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>4.039890079998727</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.432238007676268</v>
+        <v>-6.483821680872668</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3813422187100473</v>
+        <v>-0.3868933551149391</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.682189886822744</v>
+        <v>-4.807666517257847</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>3.980306323952151</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.267000053510843</v>
+        <v>-6.317169758000337</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4361465984055126</v>
+        <v>-0.4403099507091815</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.800033704701121</v>
+        <v>-4.918191737847698</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>3.950948428146059</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.990621540522006</v>
+        <v>-6.037164677124342</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4054844251501901</v>
+        <v>-0.4063877940462692</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.796629705962272</v>
+        <v>-4.912274016963238</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>3.952005694896329</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.858127435763738</v>
+        <v>-5.900913081450499</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6631147604696757</v>
+        <v>-0.660614130626906</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.899613760115289</v>
+        <v>-5.010021149979565</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>3.97872997626772</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.617451632624287</v>
+        <v>-5.667398767965473</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6065298275877357</v>
+        <v>-0.6112823335192822</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.769358439142956</v>
+        <v>-4.873232769889211</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>4.032617636350977</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.495339724019509</v>
+        <v>-5.54230181431278</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7078904361883789</v>
+        <v>-0.7073012825605012</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.747887062482525</v>
+        <v>-4.844940303448241</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>4.11523687330557</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.471930686538502</v>
+        <v>-5.525072343773068</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8000209712856052</v>
+        <v>-0.7958445266790946</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.648817606879184</v>
+        <v>-4.736745512764217</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>4.223503668509682</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.505407704904796</v>
+        <v>-5.562542514506088</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8611489332536242</v>
+        <v>-0.8545242280157108</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.464176859902322</v>
+        <v>-4.551266858405484</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>4.352507146539192</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.742234371008779</v>
+        <v>-5.799133519158921</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7525744657871899</v>
+        <v>-0.749275205471075</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.35061422505319</v>
+        <v>-4.446881927848401</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>4.505364035592482</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.943777280954309</v>
+        <v>-5.994418308346106</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.084084666042536</v>
+        <v>-1.072052839730989</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.186266547481003</v>
+        <v>-4.283686372926286</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>4.679937877950681</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.473059807936769</v>
+        <v>-6.523818666054142</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9943631146681869</v>
+        <v>-0.9827895189561011</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.018881455649534</v>
+        <v>-4.121577479140034</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>4.867187324118557</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.940402650175023</v>
+        <v>-6.987639678827971</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.052375108559875</v>
+        <v>-1.037410606411782</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.939987238725293</v>
+        <v>-4.040012432436081</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>5.068842997323876</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.515822452371726</v>
+        <v>-7.56675151042604</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.147870365487425</v>
+        <v>-1.12773440371685</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.533981835300526</v>
+        <v>-3.645750824660342</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>5.282794927498077</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.942487509680737</v>
+        <v>-7.993298737009475</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.112835363082966</v>
+        <v>-1.08760649550696</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.32405985153629</v>
+        <v>-3.443487838058516</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>5.501808750006132</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.414543580942011</v>
+        <v>-8.464045577986578</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.29627161819839</v>
+        <v>-1.273752857310621</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.95595666483832</v>
+        <v>-3.07708665072997</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>5.722176930615701</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.357123924032081</v>
+        <v>-9.406940136344847</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.219655461968609</v>
+        <v>-1.196717747389905</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.931447873918609</v>
+        <v>-3.061532994953999</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>5.944330237095309</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18555247864514</v>
+        <v>-10.22894037026262</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.313042858138641</v>
+        <v>-1.286111991193211</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.757752292117429</v>
+        <v>-2.88761484400451</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>6.163759708713081</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02035698474212</v>
+        <v>-11.06044561604348</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.423607355637018</v>
+        <v>-1.388192676450149</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.381780631411582</v>
+        <v>-2.514471120712475</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>6.371646572052149</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.23881833331304</v>
+        <v>-12.26894372215185</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.497238466818885</v>
+        <v>-1.468304477538671</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.278574008110255</v>
+        <v>-2.408554390722912</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>6.569564951553143</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.12897709582484</v>
+        <v>-13.14979385734318</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.597041091381363</v>
+        <v>-1.56250359648489</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.932845566968795</v>
+        <v>-2.069633947059149</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>6.752509865515055</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32245833057374</v>
+        <v>-14.33179314249989</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.809948120193512</v>
+        <v>-1.762842014568982</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.690716518213913</v>
+        <v>-1.817279809784879</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>6.908484062085575</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42755342883816</v>
+        <v>-15.42857462845981</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.849774905438043</v>
+        <v>-1.804056583914736</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.2746562262067</v>
+        <v>-1.407202700176335</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>7.034550639714634</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84719110287504</v>
+        <v>-16.83983322867799</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.877242556799984</v>
+        <v>-1.827046667704807</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9704434773763534</v>
+        <v>-1.095579707937571</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>7.123543232337868</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54378335122579</v>
+        <v>-18.51356631626709</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.102482534889039</v>
+        <v>-2.053569691472351</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7615426932337723</v>
+        <v>-0.8898734456883712</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>7.162877000534642</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15932115268343</v>
+        <v>-20.12759850289792</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.325248067741009</v>
+        <v>-2.279922515302953</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4734727538072736</v>
+        <v>-0.5929531095408657</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>7.143025943490482</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98800164440436</v>
+        <v>-21.95138247335605</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.537932527404849</v>
+        <v>-2.483756578245786</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6397580922000364</v>
+        <v>-0.7420351619996004</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>7.056818211672562</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.71291254380176</v>
+        <v>-23.67042802108036</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.642814965469916</v>
+        <v>-2.588102231894343</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4614671121014108</v>
+        <v>-0.5666113962233129</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.892881668242056</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.79356749601455</v>
+        <v>-25.74329305310233</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.815725009100592</v>
+        <v>-2.7733059478934</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4575525135517347</v>
+        <v>-0.5585203530671261</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.63993244351138</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.06508203905403</v>
+        <v>-28.00739735273338</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.687957225668188</v>
+        <v>-2.642369827173297</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5922592174902542</v>
+        <v>-0.6981366705712929</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>6.299071401439175</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.34487091748947</v>
+        <v>-30.28757900025408</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.176287029361728</v>
+        <v>-3.13701012083655</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9807733043184753</v>
+        <v>-1.068334625723939</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>5.860370066266998</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52929546202578</v>
+        <v>-32.4665178698997</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.23508456142392</v>
+        <v>-3.196252791195361</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.205332482659761</v>
+        <v>-1.286648775609721</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.32977460436478</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.75391337628619</v>
+        <v>-34.6931389064949</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.6144864054743</v>
+        <v>-3.56374063965977</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.441334333684715</v>
+        <v>-1.515777167642769</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.696977496055109</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.25649397217929</v>
+        <v>-37.19636102522724</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.856838023377491</v>
+        <v>-3.807912087657961</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.873838558061136</v>
+        <v>-1.934298812584227</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.997801341574034</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.79168749445112</v>
+        <v>-39.72286125841217</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.74828974051674</v>
+        <v>-3.696823898045915</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.354312980049641</v>
+        <v>-2.409195913562156</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.194993328107249</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.35709805168166</v>
+        <v>-42.29934790384681</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.931490334181013</v>
+        <v>-3.885470889692346</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.719274014065597</v>
+        <v>-2.760658783348293</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.374744629825345</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59657572966744</v>
+        <v>-44.55797962089002</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.170385584133989</v>
+        <v>-4.12200952513381</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.329781187878125</v>
+        <v>-3.3609932378528</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.436028390770821</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89664458520471</v>
+        <v>-46.86782842665007</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.313288069651429</v>
+        <v>-4.26195315020902</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.60394710168671</v>
+        <v>-3.627617985224551</v>
       </c>
     </row>
   </sheetData>
